--- a/导入功能测试数据/超限超限信息导入.xlsx
+++ b/导入功能测试数据/超限超限信息导入.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="超限超限信息导入" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="135">
   <si>
     <t>处罚觉定书编号</t>
   </si>
@@ -116,13 +116,316 @@
   </si>
   <si>
     <t>刘工</t>
+  </si>
+  <si>
+    <t>深圳市骏辉物流有限公司</t>
+  </si>
+  <si>
+    <t>深圳市长远物流有限公司</t>
+  </si>
+  <si>
+    <t>深圳市金典通贸易有限公司</t>
+  </si>
+  <si>
+    <t>深圳市金启点货运有限公司</t>
+  </si>
+  <si>
+    <t>华润五丰米业（中国）有限公司</t>
+  </si>
+  <si>
+    <t>深圳市亿东阳建材有限公司</t>
+  </si>
+  <si>
+    <t>深圳市宏胜达物流有限公司</t>
+  </si>
+  <si>
+    <t>深圳市泰鑫实业有限公司</t>
+  </si>
+  <si>
+    <t>深圳市定荣实业有限公司</t>
+  </si>
+  <si>
+    <t>吴青龙</t>
+  </si>
+  <si>
+    <t>深圳市粤烽土石方运输有限公司</t>
+  </si>
+  <si>
+    <t>深圳市宏晋荣建筑有限公司</t>
+  </si>
+  <si>
+    <t>深圳市振惠建混凝土有限公司</t>
+  </si>
+  <si>
+    <t>深圳市深伟俊建材有限公司</t>
+  </si>
+  <si>
+    <t>粤BKP73挂</t>
+  </si>
+  <si>
+    <t>粤BT3050</t>
+  </si>
+  <si>
+    <t>粤BT1640</t>
+  </si>
+  <si>
+    <t>粤BS6962</t>
+  </si>
+  <si>
+    <t>粤BV2859</t>
+  </si>
+  <si>
+    <t>粤BV1830</t>
+  </si>
+  <si>
+    <t>粤BV3076</t>
+  </si>
+  <si>
+    <t>粤BE9543</t>
+  </si>
+  <si>
+    <t>粤BG2941</t>
+  </si>
+  <si>
+    <t>粤BJ2547</t>
+  </si>
+  <si>
+    <t>粤BJ5615</t>
+  </si>
+  <si>
+    <t>粤BJG34挂</t>
+  </si>
+  <si>
+    <t>粤BV5201</t>
+  </si>
+  <si>
+    <t>粤BY1150</t>
+  </si>
+  <si>
+    <t>粤BY7108</t>
+  </si>
+  <si>
+    <t>粤BV3061</t>
+  </si>
+  <si>
+    <t>粤BAB516</t>
+  </si>
+  <si>
+    <t>粤BG4378</t>
+  </si>
+  <si>
+    <t>粤BL1516</t>
+  </si>
+  <si>
+    <t>粤BM4611</t>
+  </si>
+  <si>
+    <t>粤BU6372</t>
+  </si>
+  <si>
+    <t>粤BU9496</t>
+  </si>
+  <si>
+    <t>粤BW2025</t>
+  </si>
+  <si>
+    <t>粤BZ7916</t>
+  </si>
+  <si>
+    <t>粤BX1892</t>
+  </si>
+  <si>
+    <t>粤BBA362</t>
+  </si>
+  <si>
+    <t>粤BC9927</t>
+  </si>
+  <si>
+    <t>粤BU5560</t>
+  </si>
+  <si>
+    <t>粤BZ5593</t>
+  </si>
+  <si>
+    <t>粤BKL48挂</t>
+  </si>
+  <si>
+    <t>粤BAH467</t>
+  </si>
+  <si>
+    <t>粤BP3019</t>
+  </si>
+  <si>
+    <t>粤BT1859</t>
+  </si>
+  <si>
+    <t>粤BV0371</t>
+  </si>
+  <si>
+    <t>粤BV9291</t>
+  </si>
+  <si>
+    <t>粤BP8360</t>
+  </si>
+  <si>
+    <t>粤BAQ539</t>
+  </si>
+  <si>
+    <t>粤BBL952</t>
+  </si>
+  <si>
+    <t>普通货运，货物专用运输（罐式）</t>
+  </si>
+  <si>
+    <t>普通货运，货物专用运输（集装箱），货物专用运输（罐式）</t>
+  </si>
+  <si>
+    <t>货物专用运输（集装箱）</t>
+  </si>
+  <si>
+    <t>蒋国武</t>
+  </si>
+  <si>
+    <t>甘立泽</t>
+  </si>
+  <si>
+    <t>林凡宾</t>
+  </si>
+  <si>
+    <t>陈思建</t>
+  </si>
+  <si>
+    <t>刘启坤</t>
+  </si>
+  <si>
+    <t>曾庆全</t>
+  </si>
+  <si>
+    <t>孟现杰</t>
+  </si>
+  <si>
+    <t>李华明</t>
+  </si>
+  <si>
+    <t>何元彪</t>
+  </si>
+  <si>
+    <t>徐中坤</t>
+  </si>
+  <si>
+    <t>骆冠文</t>
+  </si>
+  <si>
+    <t>黄祥习</t>
+  </si>
+  <si>
+    <t>赵沃活</t>
+  </si>
+  <si>
+    <t>张进平</t>
+  </si>
+  <si>
+    <t>林亚伟</t>
+  </si>
+  <si>
+    <t>叶昌怀</t>
+  </si>
+  <si>
+    <t>邵子荣</t>
+  </si>
+  <si>
+    <t>庚传保</t>
+  </si>
+  <si>
+    <t>谭储</t>
+  </si>
+  <si>
+    <t>胡井勇</t>
+  </si>
+  <si>
+    <t>梁全茂</t>
+  </si>
+  <si>
+    <t>李天中</t>
+  </si>
+  <si>
+    <t>曾玉伟</t>
+  </si>
+  <si>
+    <t>覃克颂</t>
+  </si>
+  <si>
+    <t>张少臣</t>
+  </si>
+  <si>
+    <t>吴洪源</t>
+  </si>
+  <si>
+    <t>阮献忠</t>
+  </si>
+  <si>
+    <t>刘长坡</t>
+  </si>
+  <si>
+    <t>李志川</t>
+  </si>
+  <si>
+    <t>骆允平</t>
+  </si>
+  <si>
+    <t>李红山</t>
+  </si>
+  <si>
+    <t>刘家晓</t>
+  </si>
+  <si>
+    <t>张亚广</t>
+  </si>
+  <si>
+    <t>曾国栋</t>
+  </si>
+  <si>
+    <t>黄爱辉</t>
+  </si>
+  <si>
+    <t>东莞石排超载超限</t>
+  </si>
+  <si>
+    <t>东莞黄江超载超限</t>
+  </si>
+  <si>
+    <t>东莞东城超载超限</t>
+  </si>
+  <si>
+    <t>深圳广深高速超载超限</t>
+  </si>
+  <si>
+    <t>深圳深圳西高速坑梓超载超限</t>
+  </si>
+  <si>
+    <t>揭阳超载超限</t>
+  </si>
+  <si>
+    <t>深汕西高速坑梓收费站超载超限</t>
+  </si>
+  <si>
+    <t>东莞麻涌超载超限</t>
+  </si>
+  <si>
+    <t>东莞洪梅超载超限</t>
+  </si>
+  <si>
+    <t>深圳超载超限</t>
+  </si>
+  <si>
+    <t>佛山超载超限</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,6 +586,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -709,11 +1020,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1086,242 +1400,1578 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="C28" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.875" customWidth="1"/>
-    <col min="2" max="2" width="13.25" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="15.125" customWidth="1"/>
-    <col min="7" max="7" width="13.5" customWidth="1"/>
-    <col min="8" max="8" width="10.875" customWidth="1"/>
-    <col min="11" max="11" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="20.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="42.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="9" style="1"/>
+    <col min="11" max="11" width="14.875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>44019100001</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="2">
         <v>42736</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>38.049999999999997</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <v>4</v>
       </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="K2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>44019100002</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <v>42736</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>46.65</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>5</v>
       </c>
-      <c r="K3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="K3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>44019100003</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="2">
         <v>42736</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>38.027000000000001</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <v>4</v>
       </c>
-      <c r="K4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="K4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>44019100004</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="2">
         <v>42736</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>38.9</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>4</v>
       </c>
-      <c r="K5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="K5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>44019100005</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <v>42736</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I6">
-        <v>49.8</v>
-      </c>
-      <c r="J6">
-        <v>6</v>
-      </c>
-      <c r="K6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="I6" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J6" s="1">
+        <v>6</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>44019100006</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="2">
+        <v>42941</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I7" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J7" s="1">
+        <v>6</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>44019100007</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="2">
+        <v>42941</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I8" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J8" s="1">
+        <v>6</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>44019100008</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="2">
+        <v>42941</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I9" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J9" s="1">
+        <v>6</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>44019100009</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="2">
+        <v>42941</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I10" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J10" s="1">
+        <v>6</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>44019100010</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="2">
+        <v>42941</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I11" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J11" s="1">
+        <v>6</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>44019100011</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="2">
+        <v>42941</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I12" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J12" s="1">
+        <v>6</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>44019100012</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="2">
+        <v>42942</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I13" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J13" s="1">
+        <v>6</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>44019100013</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="2">
+        <v>42943</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I14" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J14" s="1">
+        <v>6</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>44019100014</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="2">
+        <v>42944</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I15" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J15" s="1">
+        <v>6</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>44019100015</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="2">
+        <v>42945</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I16" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J16" s="1">
+        <v>6</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>44019100016</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="2">
+        <v>42946</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I17" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J17" s="1">
+        <v>6</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>44019100017</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="2">
+        <v>42947</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I18" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J18" s="1">
+        <v>6</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>44019100018</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="2">
+        <v>42948</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I19" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J19" s="1">
+        <v>6</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>44019100019</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="2">
+        <v>42949</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I20" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J20" s="1">
+        <v>6</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>44019100020</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="2">
+        <v>42950</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I21" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J21" s="1">
+        <v>6</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>44019100021</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" s="2">
+        <v>42951</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I22" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J22" s="1">
+        <v>6</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>44019100022</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G23" s="2">
+        <v>42952</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I23" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J23" s="1">
+        <v>6</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>44019100023</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" s="2">
+        <v>42947</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I24" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J24" s="1">
+        <v>6</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
+        <v>44019100024</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" s="2">
+        <v>42948</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I25" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J25" s="1">
+        <v>6</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
+        <v>44019100025</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G26" s="2">
+        <v>42949</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I26" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J26" s="1">
+        <v>6</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <v>44019100026</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G27" s="2">
+        <v>42950</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J27" s="1">
+        <v>6</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
+        <v>44019100027</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G28" s="2">
+        <v>42951</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I28" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J28" s="1">
+        <v>6</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
+        <v>44019100028</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G29" s="2">
+        <v>42952</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I29" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J29" s="1">
+        <v>6</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
+        <v>44019100029</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G30" s="2">
+        <v>42947</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I30" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J30" s="1">
+        <v>6</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
+        <v>44019100030</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G31" s="2">
+        <v>42948</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I31" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J31" s="1">
+        <v>6</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A32" s="1">
+        <v>44019100031</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G32" s="2">
+        <v>42949</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I32" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J32" s="1">
+        <v>6</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A33" s="1">
+        <v>44019100032</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G33" s="2">
+        <v>42950</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I33" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J33" s="1">
+        <v>6</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A34" s="1">
+        <v>44019100033</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G34" s="2">
+        <v>42951</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I34" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J34" s="1">
+        <v>6</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A35" s="1">
+        <v>44019100034</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G35" s="2">
+        <v>42952</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I35" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J35" s="1">
+        <v>6</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A36" s="1">
+        <v>44019100035</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G36" s="2">
+        <v>42947</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I36" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J36" s="1">
+        <v>6</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A37" s="1">
+        <v>44019100036</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G37" s="2">
+        <v>42948</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I37" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J37" s="1">
+        <v>6</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A38" s="1">
+        <v>44019100037</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G38" s="2">
+        <v>42949</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I38" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J38" s="1">
+        <v>6</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A39" s="1">
+        <v>44019100038</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G39" s="2">
+        <v>42950</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I39" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J39" s="1">
+        <v>6</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A40" s="1">
+        <v>44019100039</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G40" s="2">
+        <v>42951</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I40" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J40" s="1">
+        <v>6</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A41" s="1">
+        <v>44019100040</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G41" s="2">
+        <v>42952</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I41" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J41" s="1">
+        <v>6</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A42" s="1">
+        <v>44019100041</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G42" s="2">
+        <v>42947</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I42" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J42" s="1">
+        <v>6</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A43" s="1">
+        <v>44019100042</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G43" s="2">
+        <v>42948</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I43" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J43" s="1">
+        <v>6</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A44" s="1">
+        <v>44019100043</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G44" s="2">
+        <v>42949</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I44" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J44" s="1">
+        <v>6</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A45" s="1">
+        <v>44019100044</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G45" s="2">
+        <v>42950</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I45" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J45" s="1">
+        <v>6</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/导入功能测试数据/超限超限信息导入.xlsx
+++ b/导入功能测试数据/超限超限信息导入.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="138">
   <si>
     <t>处罚觉定书编号</t>
   </si>
@@ -419,6 +419,17 @@
   </si>
   <si>
     <t>佛山超载超限</t>
+  </si>
+  <si>
+    <t>2月违规名单</t>
+  </si>
+  <si>
+    <t>粤BBL953</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄爱辉1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1400,10 +1411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C28" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2969,6 +2980,41 @@
         <v>18</v>
       </c>
     </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A46" s="1">
+        <v>44019100045</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G46" s="2">
+        <v>42951</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I46" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J46" s="1">
+        <v>6</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/导入功能测试数据/超限超限信息导入.xlsx
+++ b/导入功能测试数据/超限超限信息导入.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="183">
   <si>
     <t>处罚觉定书编号</t>
   </si>
@@ -430,6 +430,141 @@
   <si>
     <t>黄爱辉1</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2017082211010345</t>
+  </si>
+  <si>
+    <t>P2017082211010346</t>
+  </si>
+  <si>
+    <t>P2017082211010347</t>
+  </si>
+  <si>
+    <t>P2017082211010348</t>
+  </si>
+  <si>
+    <t>P2017082211010349</t>
+  </si>
+  <si>
+    <t>P2017082211010350</t>
+  </si>
+  <si>
+    <t>P2017082211010351</t>
+  </si>
+  <si>
+    <t>P2017082211010352</t>
+  </si>
+  <si>
+    <t>P2017082211010353</t>
+  </si>
+  <si>
+    <t>P2017082211010354</t>
+  </si>
+  <si>
+    <t>P2017082211010355</t>
+  </si>
+  <si>
+    <t>P2017082211010356</t>
+  </si>
+  <si>
+    <t>P2017082211010357</t>
+  </si>
+  <si>
+    <t>P2017082211010358</t>
+  </si>
+  <si>
+    <t>P2017082211010359</t>
+  </si>
+  <si>
+    <t>P2017082211010360</t>
+  </si>
+  <si>
+    <t>P2017082211010361</t>
+  </si>
+  <si>
+    <t>P2017082211010362</t>
+  </si>
+  <si>
+    <t>P2017082211010363</t>
+  </si>
+  <si>
+    <t>P2017082211010364</t>
+  </si>
+  <si>
+    <t>P2017082211010365</t>
+  </si>
+  <si>
+    <t>P2017082211010366</t>
+  </si>
+  <si>
+    <t>P2017082211010367</t>
+  </si>
+  <si>
+    <t>P2017082211010368</t>
+  </si>
+  <si>
+    <t>P2017082211010369</t>
+  </si>
+  <si>
+    <t>P2017082211010370</t>
+  </si>
+  <si>
+    <t>P2017082211010371</t>
+  </si>
+  <si>
+    <t>P2017082211010372</t>
+  </si>
+  <si>
+    <t>P2017082211010373</t>
+  </si>
+  <si>
+    <t>P2017082211010374</t>
+  </si>
+  <si>
+    <t>P2017082211010375</t>
+  </si>
+  <si>
+    <t>P2017082211010376</t>
+  </si>
+  <si>
+    <t>P2017082211010377</t>
+  </si>
+  <si>
+    <t>P2017082211010378</t>
+  </si>
+  <si>
+    <t>P2017082211010379</t>
+  </si>
+  <si>
+    <t>P2017082211010380</t>
+  </si>
+  <si>
+    <t>P2017082211010381</t>
+  </si>
+  <si>
+    <t>P2017082211010382</t>
+  </si>
+  <si>
+    <t>P2017082211010383</t>
+  </si>
+  <si>
+    <t>P2017082211010384</t>
+  </si>
+  <si>
+    <t>P2017082211010385</t>
+  </si>
+  <si>
+    <t>P2017082211010386</t>
+  </si>
+  <si>
+    <t>P2017082211010387</t>
+  </si>
+  <si>
+    <t>P2017082211010388</t>
+  </si>
+  <si>
+    <t>P2017082211010389</t>
   </si>
 </sst>
 </file>
@@ -1413,8 +1548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1471,8 +1606,8 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>44019100001</v>
+      <c r="A2" t="s">
+        <v>138</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
@@ -1506,8 +1641,8 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>44019100002</v>
+      <c r="A3" t="s">
+        <v>139</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>19</v>
@@ -1541,8 +1676,8 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>44019100003</v>
+      <c r="A4" t="s">
+        <v>140</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>24</v>
@@ -1576,8 +1711,8 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>44019100004</v>
+      <c r="A5" t="s">
+        <v>141</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>27</v>
@@ -1614,8 +1749,8 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>44019100005</v>
+      <c r="A6" t="s">
+        <v>142</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>31</v>
@@ -1649,8 +1784,8 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>44019100006</v>
+      <c r="A7" t="s">
+        <v>143</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>34</v>
@@ -1684,8 +1819,8 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
-        <v>44019100007</v>
+      <c r="A8" t="s">
+        <v>144</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>35</v>
@@ -1719,8 +1854,8 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
-        <v>44019100008</v>
+      <c r="A9" t="s">
+        <v>145</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>36</v>
@@ -1751,8 +1886,8 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
-        <v>44019100009</v>
+      <c r="A10" t="s">
+        <v>146</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>37</v>
@@ -1786,8 +1921,8 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
-        <v>44019100010</v>
+      <c r="A11" t="s">
+        <v>147</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>38</v>
@@ -1821,8 +1956,8 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
-        <v>44019100011</v>
+      <c r="A12" t="s">
+        <v>148</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>39</v>
@@ -1853,8 +1988,8 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="1">
-        <v>44019100012</v>
+      <c r="A13" t="s">
+        <v>149</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>40</v>
@@ -1888,8 +2023,8 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
-        <v>44019100013</v>
+      <c r="A14" t="s">
+        <v>150</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>40</v>
@@ -1923,8 +2058,8 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="1">
-        <v>44019100014</v>
+      <c r="A15" t="s">
+        <v>151</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>40</v>
@@ -1955,8 +2090,8 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="1">
-        <v>44019100015</v>
+      <c r="A16" t="s">
+        <v>152</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>41</v>
@@ -1987,8 +2122,8 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="1">
-        <v>44019100016</v>
+      <c r="A17" t="s">
+        <v>153</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>42</v>
@@ -2022,8 +2157,8 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="1">
-        <v>44019100017</v>
+      <c r="A18" t="s">
+        <v>154</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>37</v>
@@ -2057,8 +2192,8 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="1">
-        <v>44019100018</v>
+      <c r="A19" t="s">
+        <v>155</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>38</v>
@@ -2092,8 +2227,8 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="1">
-        <v>44019100019</v>
+      <c r="A20" t="s">
+        <v>156</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>43</v>
@@ -2127,8 +2262,8 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="1">
-        <v>44019100020</v>
+      <c r="A21" t="s">
+        <v>157</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>44</v>
@@ -2162,8 +2297,8 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="1">
-        <v>44019100021</v>
+      <c r="A22" t="s">
+        <v>158</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>44</v>
@@ -2197,8 +2332,8 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="1">
-        <v>44019100022</v>
+      <c r="A23" t="s">
+        <v>159</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>40</v>
@@ -2232,8 +2367,8 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="1">
-        <v>44019100023</v>
+      <c r="A24" t="s">
+        <v>160</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>40</v>
@@ -2267,8 +2402,8 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="1">
-        <v>44019100024</v>
+      <c r="A25" t="s">
+        <v>161</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>44</v>
@@ -2299,8 +2434,8 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="1">
-        <v>44019100025</v>
+      <c r="A26" t="s">
+        <v>162</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>44</v>
@@ -2331,8 +2466,8 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="1">
-        <v>44019100026</v>
+      <c r="A27" t="s">
+        <v>163</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>45</v>
@@ -2363,8 +2498,8 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="1">
-        <v>44019100027</v>
+      <c r="A28" t="s">
+        <v>164</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>45</v>
@@ -2395,8 +2530,8 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="1">
-        <v>44019100028</v>
+      <c r="A29" t="s">
+        <v>165</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>46</v>
@@ -2427,8 +2562,8 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A30" s="1">
-        <v>44019100029</v>
+      <c r="A30" t="s">
+        <v>166</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>46</v>
@@ -2459,8 +2594,8 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A31" s="1">
-        <v>44019100030</v>
+      <c r="A31" t="s">
+        <v>167</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>47</v>
@@ -2491,8 +2626,8 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A32" s="1">
-        <v>44019100031</v>
+      <c r="A32" t="s">
+        <v>168</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>46</v>
@@ -2526,8 +2661,8 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A33" s="1">
-        <v>44019100032</v>
+      <c r="A33" t="s">
+        <v>169</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>47</v>
@@ -2561,8 +2696,8 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A34" s="1">
-        <v>44019100033</v>
+      <c r="A34" t="s">
+        <v>170</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>46</v>
@@ -2596,8 +2731,8 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A35" s="1">
-        <v>44019100034</v>
+      <c r="A35" t="s">
+        <v>171</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>47</v>
@@ -2631,8 +2766,8 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A36" s="1">
-        <v>44019100035</v>
+      <c r="A36" t="s">
+        <v>172</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>46</v>
@@ -2666,8 +2801,8 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A37" s="1">
-        <v>44019100036</v>
+      <c r="A37" t="s">
+        <v>173</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>47</v>
@@ -2701,8 +2836,8 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A38" s="1">
-        <v>44019100037</v>
+      <c r="A38" t="s">
+        <v>174</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>46</v>
@@ -2736,8 +2871,8 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A39" s="1">
-        <v>44019100038</v>
+      <c r="A39" t="s">
+        <v>175</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>47</v>
@@ -2771,8 +2906,8 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="1">
-        <v>44019100039</v>
+      <c r="A40" t="s">
+        <v>176</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>46</v>
@@ -2806,8 +2941,8 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A41" s="1">
-        <v>44019100040</v>
+      <c r="A41" t="s">
+        <v>177</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>47</v>
@@ -2841,8 +2976,8 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A42" s="1">
-        <v>44019100041</v>
+      <c r="A42" t="s">
+        <v>178</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>46</v>
@@ -2876,8 +3011,8 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A43" s="1">
-        <v>44019100042</v>
+      <c r="A43" t="s">
+        <v>179</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>47</v>
@@ -2911,8 +3046,8 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A44" s="1">
-        <v>44019100043</v>
+      <c r="A44" t="s">
+        <v>180</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>46</v>
@@ -2946,8 +3081,8 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A45" s="1">
-        <v>44019100044</v>
+      <c r="A45" t="s">
+        <v>181</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>47</v>
@@ -2981,8 +3116,8 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A46" s="1">
-        <v>44019100045</v>
+      <c r="A46" t="s">
+        <v>182</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>47</v>

--- a/导入功能测试数据/超限超限信息导入.xlsx
+++ b/导入功能测试数据/超限超限信息导入.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="182">
   <si>
     <t>处罚觉定书编号</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>总重</t>
-  </si>
-  <si>
-    <t>轴数</t>
   </si>
   <si>
     <t>文件来源</t>
@@ -1546,10 +1543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1562,12 +1559,12 @@
     <col min="6" max="6" width="15.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.875" style="1" customWidth="1"/>
-    <col min="9" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="14.875" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="9" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="14.875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1601,1553 +1598,1415 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="G2" s="2">
         <v>42736</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I2" s="1">
         <v>38.049999999999997</v>
       </c>
-      <c r="J2" s="1">
-        <v>4</v>
+      <c r="J2" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="G3" s="2">
         <v>42736</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" s="1">
         <v>46.65</v>
       </c>
-      <c r="J3" s="1">
-        <v>5</v>
+      <c r="J3" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="G4" s="2">
         <v>42736</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4" s="1">
         <v>38.027000000000001</v>
       </c>
-      <c r="J4" s="1">
-        <v>4</v>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="G5" s="2">
         <v>42736</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I5" s="1">
         <v>38.9</v>
       </c>
-      <c r="J5" s="1">
-        <v>4</v>
+      <c r="J5" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="G6" s="2">
         <v>42736</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I6" s="1">
         <v>49.8</v>
       </c>
-      <c r="J6" s="1">
-        <v>6</v>
+      <c r="J6" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G7" s="2">
         <v>42941</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I7" s="1">
         <v>49.8</v>
       </c>
-      <c r="J7" s="1">
-        <v>6</v>
+      <c r="J7" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G8" s="2">
         <v>42941</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I8" s="1">
         <v>49.8</v>
       </c>
-      <c r="J8" s="1">
-        <v>6</v>
+      <c r="J8" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G9" s="2">
         <v>42941</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I9" s="1">
         <v>49.8</v>
       </c>
-      <c r="J9" s="1">
-        <v>6</v>
+      <c r="J9" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G10" s="2">
         <v>42941</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I10" s="1">
         <v>49.8</v>
       </c>
-      <c r="J10" s="1">
-        <v>6</v>
+      <c r="J10" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="2">
         <v>42941</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I11" s="1">
         <v>49.8</v>
       </c>
-      <c r="J11" s="1">
-        <v>6</v>
+      <c r="J11" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" s="2">
         <v>42941</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I12" s="1">
         <v>49.8</v>
       </c>
-      <c r="J12" s="1">
-        <v>6</v>
+      <c r="J12" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G13" s="2">
         <v>42942</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I13" s="1">
         <v>49.8</v>
       </c>
-      <c r="J13" s="1">
-        <v>6</v>
+      <c r="J13" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G14" s="2">
         <v>42943</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I14" s="1">
         <v>49.8</v>
       </c>
-      <c r="J14" s="1">
-        <v>6</v>
+      <c r="J14" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G15" s="2">
         <v>42944</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I15" s="1">
         <v>49.8</v>
       </c>
-      <c r="J15" s="1">
-        <v>6</v>
+      <c r="J15" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G16" s="2">
         <v>42945</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I16" s="1">
         <v>49.8</v>
       </c>
-      <c r="J16" s="1">
-        <v>6</v>
+      <c r="J16" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G17" s="2">
         <v>42946</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I17" s="1">
         <v>49.8</v>
       </c>
-      <c r="J17" s="1">
-        <v>6</v>
+      <c r="J17" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L17" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G18" s="2">
         <v>42947</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I18" s="1">
         <v>49.8</v>
       </c>
-      <c r="J18" s="1">
-        <v>6</v>
+      <c r="J18" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G19" s="2">
         <v>42948</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I19" s="1">
         <v>49.8</v>
       </c>
-      <c r="J19" s="1">
-        <v>6</v>
+      <c r="J19" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L19" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G20" s="2">
         <v>42949</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I20" s="1">
         <v>49.8</v>
       </c>
-      <c r="J20" s="1">
-        <v>6</v>
+      <c r="J20" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L20" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G21" s="2">
         <v>42950</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I21" s="1">
         <v>49.8</v>
       </c>
-      <c r="J21" s="1">
-        <v>6</v>
+      <c r="J21" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L21" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G22" s="2">
         <v>42951</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I22" s="1">
         <v>49.8</v>
       </c>
-      <c r="J22" s="1">
-        <v>6</v>
+      <c r="J22" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G23" s="2">
         <v>42952</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I23" s="1">
         <v>49.8</v>
       </c>
-      <c r="J23" s="1">
-        <v>6</v>
+      <c r="J23" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L23" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G24" s="2">
         <v>42947</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I24" s="1">
         <v>49.8</v>
       </c>
-      <c r="J24" s="1">
-        <v>6</v>
+      <c r="J24" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L24" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G25" s="2">
         <v>42948</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I25" s="1">
         <v>49.8</v>
       </c>
-      <c r="J25" s="1">
-        <v>6</v>
+      <c r="J25" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L25" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G26" s="2">
         <v>42949</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I26" s="1">
         <v>49.8</v>
       </c>
-      <c r="J26" s="1">
-        <v>6</v>
+      <c r="J26" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L26" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G27" s="2">
         <v>42950</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I27" s="1">
         <v>49.8</v>
       </c>
-      <c r="J27" s="1">
-        <v>6</v>
+      <c r="J27" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L27" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G28" s="2">
         <v>42951</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I28" s="1">
         <v>49.8</v>
       </c>
-      <c r="J28" s="1">
-        <v>6</v>
+      <c r="J28" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L28" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G29" s="2">
         <v>42952</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I29" s="1">
         <v>49.8</v>
       </c>
-      <c r="J29" s="1">
-        <v>6</v>
+      <c r="J29" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L29" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G30" s="2">
         <v>42947</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I30" s="1">
         <v>49.8</v>
       </c>
-      <c r="J30" s="1">
-        <v>6</v>
+      <c r="J30" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L30" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G31" s="2">
         <v>42948</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I31" s="1">
         <v>49.8</v>
       </c>
-      <c r="J31" s="1">
-        <v>6</v>
+      <c r="J31" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L31" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G32" s="2">
         <v>42949</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I32" s="1">
         <v>49.8</v>
       </c>
-      <c r="J32" s="1">
-        <v>6</v>
+      <c r="J32" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L32" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G33" s="2">
         <v>42950</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I33" s="1">
         <v>49.8</v>
       </c>
-      <c r="J33" s="1">
-        <v>6</v>
+      <c r="J33" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L33" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G34" s="2">
         <v>42951</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I34" s="1">
         <v>49.8</v>
       </c>
-      <c r="J34" s="1">
-        <v>6</v>
+      <c r="J34" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L34" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G35" s="2">
         <v>42952</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I35" s="1">
         <v>49.8</v>
       </c>
-      <c r="J35" s="1">
-        <v>6</v>
+      <c r="J35" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L35" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G36" s="2">
         <v>42947</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I36" s="1">
         <v>49.8</v>
       </c>
-      <c r="J36" s="1">
-        <v>6</v>
+      <c r="J36" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L36" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G37" s="2">
         <v>42948</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I37" s="1">
         <v>49.8</v>
       </c>
-      <c r="J37" s="1">
-        <v>6</v>
+      <c r="J37" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L37" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G38" s="2">
         <v>42949</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I38" s="1">
         <v>49.8</v>
       </c>
-      <c r="J38" s="1">
-        <v>6</v>
+      <c r="J38" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L38" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G39" s="2">
         <v>42950</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I39" s="1">
         <v>49.8</v>
       </c>
-      <c r="J39" s="1">
-        <v>6</v>
+      <c r="J39" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L39" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G40" s="2">
         <v>42951</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I40" s="1">
         <v>49.8</v>
       </c>
-      <c r="J40" s="1">
-        <v>6</v>
+      <c r="J40" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L40" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G41" s="2">
         <v>42952</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I41" s="1">
         <v>49.8</v>
       </c>
-      <c r="J41" s="1">
-        <v>6</v>
+      <c r="J41" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L41" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G42" s="2">
         <v>42947</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I42" s="1">
         <v>49.8</v>
       </c>
-      <c r="J42" s="1">
-        <v>6</v>
+      <c r="J42" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L42" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G43" s="2">
         <v>42948</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I43" s="1">
         <v>49.8</v>
       </c>
-      <c r="J43" s="1">
-        <v>6</v>
+      <c r="J43" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L43" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G44" s="2">
         <v>42949</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I44" s="1">
         <v>49.8</v>
       </c>
-      <c r="J44" s="1">
-        <v>6</v>
+      <c r="J44" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L44" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G45" s="2">
         <v>42950</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I45" s="1">
         <v>49.8</v>
       </c>
-      <c r="J45" s="1">
-        <v>6</v>
+      <c r="J45" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L45" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="G46" s="2">
         <v>42951</v>
       </c>
       <c r="H46" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I46" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J46" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="I46" s="1">
-        <v>49.8</v>
-      </c>
-      <c r="J46" s="1">
-        <v>6</v>
-      </c>
       <c r="K46" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/导入功能测试数据/超限超限信息导入.xlsx
+++ b/导入功能测试数据/超限超限信息导入.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="超限超限信息导入" sheetId="1" r:id="rId1"/>
+    <sheet name="数据案例" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="182">
   <si>
     <t>处罚觉定书编号</t>
   </si>
@@ -1546,7 +1547,7 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="C2" sqref="A2:XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3014,4 +3015,1479 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K46"/>
+  <sheetViews>
+    <sheetView topLeftCell="C31" workbookViewId="0">
+      <selection activeCell="C2" sqref="A2:XFD46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="42.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="29.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="14.875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2">
+        <v>42736</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1">
+        <v>38.049999999999997</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2">
+        <v>42736</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1">
+        <v>46.65</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2">
+        <v>42736</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="1">
+        <v>38.027000000000001</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="2">
+        <v>42736</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="1">
+        <v>38.9</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="2">
+        <v>42736</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" s="2">
+        <v>42941</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I7" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="2">
+        <v>42941</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I8" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="2">
+        <v>42941</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I9" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="2">
+        <v>42941</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I10" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" s="2">
+        <v>42941</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I11" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="2">
+        <v>42941</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I12" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="2">
+        <v>42942</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I13" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" s="2">
+        <v>42943</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I14" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="2">
+        <v>42944</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I15" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="2">
+        <v>42945</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I16" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="2">
+        <v>42946</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I17" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>153</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="2">
+        <v>42947</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I18" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" s="2">
+        <v>42948</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I19" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="2">
+        <v>42949</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I20" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="2">
+        <v>42950</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I21" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" s="2">
+        <v>42951</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I22" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" s="2">
+        <v>42952</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I23" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G24" s="2">
+        <v>42947</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I24" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25" s="2">
+        <v>42948</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I25" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>161</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G26" s="2">
+        <v>42949</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I26" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>162</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G27" s="2">
+        <v>42950</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>163</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G28" s="2">
+        <v>42951</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I28" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>164</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G29" s="2">
+        <v>42952</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I29" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>165</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G30" s="2">
+        <v>42947</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I30" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>166</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G31" s="2">
+        <v>42948</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I31" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>167</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G32" s="2">
+        <v>42949</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I32" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>168</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G33" s="2">
+        <v>42950</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I33" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>169</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G34" s="2">
+        <v>42951</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I34" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>170</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G35" s="2">
+        <v>42952</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I35" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>171</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G36" s="2">
+        <v>42947</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I36" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>172</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G37" s="2">
+        <v>42948</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I37" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>173</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G38" s="2">
+        <v>42949</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I38" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>174</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G39" s="2">
+        <v>42950</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I39" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>175</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G40" s="2">
+        <v>42951</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I40" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>176</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G41" s="2">
+        <v>42952</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I41" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>177</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G42" s="2">
+        <v>42947</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I42" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>178</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G43" s="2">
+        <v>42948</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I43" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>179</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G44" s="2">
+        <v>42949</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I44" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>180</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G45" s="2">
+        <v>42950</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I45" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>181</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G46" s="2">
+        <v>42951</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I46" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>